--- a/PythonResources/Data/Consumption/Sympheny/base_1345_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1345_coo.xlsx
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>4.151615026572752</v>
+        <v>4.151615026572751</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>7.572428111139573</v>
+        <v>7.572428111139572</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>18.27884068130811</v>
+        <v>18.2788406813081</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>19.81476738072449</v>
+        <v>19.81476738072448</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>37.37036735282413</v>
+        <v>37.37036735282412</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -26407,7 +26407,7 @@
         <v>3258</v>
       </c>
       <c r="B3258">
-        <v>6.016162281640097</v>
+        <v>6.016162281640096</v>
       </c>
     </row>
     <row r="3259" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>5.753043103129941</v>
+        <v>5.75304310312994</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>47.70610367329379</v>
+        <v>47.70610367329378</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>50.18020938167287</v>
+        <v>50.18020938167286</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>52.25104934085393</v>
+        <v>52.25104934085392</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28519,7 +28519,7 @@
         <v>3522</v>
       </c>
       <c r="B3522">
-        <v>2.533613782779263</v>
+        <v>2.533613782779262</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>7.987827001338163</v>
+        <v>7.987827001338162</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>40.87608311729114</v>
+        <v>40.87608311729113</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>7.67207226428443</v>
+        <v>7.672072264284429</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -30007,7 +30007,7 @@
         <v>3708</v>
       </c>
       <c r="B3708">
-        <v>7.207408132486867</v>
+        <v>7.207408132486866</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>11.18655085280742</v>
+        <v>11.18655085280741</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>42.44284088997469</v>
+        <v>42.44284088997468</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>21.43536230321013</v>
+        <v>21.43536230321012</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>7.584795708971082</v>
+        <v>7.584795708971081</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>9.093642644415151</v>
+        <v>9.09364264441515</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>51.65758048756471</v>
+        <v>51.6575804875647</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31895,7 +31895,7 @@
         <v>3944</v>
       </c>
       <c r="B3944">
-        <v>17.8406994785094</v>
+        <v>17.84069947850939</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>68.47839275153262</v>
+        <v>68.47839275153261</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>66.01776831093197</v>
+        <v>66.01776831093196</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>63.26729661309524</v>
+        <v>63.26729661309523</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>31.81579195707565</v>
+        <v>31.81579195707564</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>27.48722063735918</v>
+        <v>27.48722063735917</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>3.98482829847058</v>
+        <v>3.984828298470579</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32495,7 +32495,7 @@
         <v>4019</v>
       </c>
       <c r="B4019">
-        <v>60.51829027045182</v>
+        <v>60.51829027045181</v>
       </c>
     </row>
     <row r="4020" spans="1:2">
@@ -32719,7 +32719,7 @@
         <v>4047</v>
       </c>
       <c r="B4047">
-        <v>52.93156029262558</v>
+        <v>52.93156029262557</v>
       </c>
     </row>
     <row r="4048" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>65.3753565941863</v>
+        <v>65.37535659418629</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>46.04527009719995</v>
+        <v>46.04527009719994</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>29.03630622641145</v>
+        <v>29.03630622641144</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>45.63995285073131</v>
+        <v>45.6399528507313</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>78.93194362954415</v>
+        <v>78.93194362954414</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>4.925029497600042</v>
+        <v>4.925029497600041</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>38.31815909185492</v>
+        <v>38.31815909185491</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>31.88583593531571</v>
+        <v>31.8858359353157</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>40.14721544414037</v>
+        <v>40.14721544414036</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>49.90970481298845</v>
+        <v>49.90970481298844</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36183,7 +36183,7 @@
         <v>4480</v>
       </c>
       <c r="B4480">
-        <v>54.42680873187576</v>
+        <v>54.42680873187575</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36191,7 +36191,7 @@
         <v>4481</v>
       </c>
       <c r="B4481">
-        <v>50.55709873739136</v>
+        <v>50.55709873739135</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>57.48441887822958</v>
+        <v>57.48441887822957</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>37.61508167010635</v>
+        <v>37.61508167010634</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>35.20984765581269</v>
+        <v>35.20984765581268</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>42.86046712006711</v>
+        <v>42.8604671200671</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>7.736108286231934</v>
+        <v>7.736108286231933</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>27.43511260668519</v>
+        <v>27.43511260668518</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>24.5451097873418</v>
+        <v>24.54510978734179</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>29.98146032609429</v>
+        <v>29.98146032609428</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>43.59929920853236</v>
+        <v>43.59929920853235</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>49.47947652823359</v>
+        <v>49.47947652823358</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>47.98627958625404</v>
+        <v>47.98627958625403</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>52.40930770173106</v>
+        <v>52.40930770173105</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37903,7 +37903,7 @@
         <v>4695</v>
       </c>
       <c r="B4695">
-        <v>59.82048812739916</v>
+        <v>59.82048812739915</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>35.39067248666674</v>
+        <v>35.39067248666673</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -38103,7 +38103,7 @@
         <v>4720</v>
       </c>
       <c r="B4720">
-        <v>49.46892597084178</v>
+        <v>49.46892597084177</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>58.91050255235568</v>
+        <v>58.91050255235567</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>52.96438424895565</v>
+        <v>52.96438424895564</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>63.17292773864629</v>
+        <v>63.17292773864628</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>61.83330002092528</v>
+        <v>61.83330002092527</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>62.58737180340092</v>
+        <v>62.58737180340091</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>71.42375669007914</v>
+        <v>71.42375669007913</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>4.952548868130342</v>
+        <v>4.952548868130341</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>82.97691010514804</v>
+        <v>82.97691010514802</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>80.12884575143708</v>
+        <v>80.12884575143707</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>27.71634357538462</v>
+        <v>27.71634357538461</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>74.69706712088771</v>
+        <v>74.6970671208877</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>52.50572807345064</v>
+        <v>52.50572807345063</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>59.7595293513576</v>
+        <v>59.75952935135759</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>53.21935605259102</v>
+        <v>53.21935605259101</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>54.97221393482453</v>
+        <v>54.97221393482452</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>10.56362836013273</v>
+        <v>10.56362836013272</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>21.07772771473169</v>
+        <v>21.07772771473168</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>21.77256984029388</v>
+        <v>21.77256984029387</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>24.1118921779926</v>
+        <v>24.11189217799259</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>7.478323000625414</v>
+        <v>7.478323000625413</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>35.26084201653976</v>
+        <v>35.26084201653975</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>29.57643615066431</v>
+        <v>29.5764361506643</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>9.936661487124512</v>
+        <v>9.93666148712451</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>43.729422749698</v>
+        <v>43.72942274969799</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>53.77208803150632</v>
+        <v>53.77208803150631</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>3.054855278590399</v>
+        <v>3.054855278590398</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>9.936661487124512</v>
+        <v>9.93666148712451</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>33.28906006842623</v>
+        <v>33.28906006842622</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>52.31259425897282</v>
+        <v>52.31259425897281</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41759,7 +41759,7 @@
         <v>5177</v>
       </c>
       <c r="B5177">
-        <v>62.55161713668424</v>
+        <v>62.55161713668423</v>
       </c>
     </row>
     <row r="5178" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>49.21190266993578</v>
+        <v>49.21190266993577</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>58.25343728367695</v>
+        <v>58.25343728367694</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>61.92503125602628</v>
+        <v>61.92503125602627</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>42.62601028913803</v>
+        <v>42.62601028913802</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>7.611377252177665</v>
+        <v>7.611377252177664</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>9.379035221863569</v>
+        <v>9.379035221863568</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>58.40407579754888</v>
+        <v>58.40407579754887</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43471,7 +43471,7 @@
         <v>5391</v>
       </c>
       <c r="B5391">
-        <v>54.53143509267786</v>
+        <v>54.53143509267785</v>
       </c>
     </row>
     <row r="5392" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>37.20976442363771</v>
+        <v>37.2097644236377</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>27.77182192300321</v>
+        <v>27.7718219230032</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>7.125846462427415</v>
+        <v>7.125846462427414</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>54.5569322730414</v>
+        <v>54.55693227304139</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>57.36924196003567</v>
+        <v>57.36924196003566</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>58.75517490186517</v>
+        <v>58.75517490186516</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43687,7 +43687,7 @@
         <v>5418</v>
       </c>
       <c r="B5418">
-        <v>38.4274745892756</v>
+        <v>38.42747458927559</v>
       </c>
     </row>
     <row r="5419" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>4.295161221309079</v>
+        <v>4.295161221309078</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>17.10837356710243</v>
+        <v>17.10837356710242</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>33.98188000382165</v>
+        <v>33.98188000382164</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>33.43178566425431</v>
+        <v>33.4317856642543</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>8.189811561183562</v>
+        <v>8.189811561183561</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>6.883007799792623</v>
+        <v>6.883007799792622</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>7.429028451922576</v>
+        <v>7.429028451922575</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45799,7 +45799,7 @@
         <v>5682</v>
       </c>
       <c r="B5682">
-        <v>6.358088262446288</v>
+        <v>6.358088262446287</v>
       </c>
     </row>
     <row r="5683" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>68.75593102514492</v>
+        <v>68.7559310251449</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>28.2220962668025</v>
+        <v>28.22209626680249</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>6.124071038075204</v>
+        <v>6.124071038075203</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>6.762057382137086</v>
+        <v>6.762057382137085</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>15.00215993355494</v>
+        <v>15.00215993355493</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>21.4918957065679</v>
+        <v>21.49189570656789</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>6.441642815568637</v>
+        <v>6.441642815568636</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>42.77401116366201</v>
+        <v>42.774011163662</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>70.09116267728601</v>
+        <v>70.09116267728599</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>79.59633567418942</v>
+        <v>79.5963356741894</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>18.23068910965605</v>
+        <v>18.23068910965604</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>8.350355876162247</v>
+        <v>8.350355876162245</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>34.76174203769949</v>
+        <v>34.76174203769948</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>9.111256213838701</v>
+        <v>9.111256213838695</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>9.140768467431895</v>
+        <v>9.140768467431894</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>42.54717417973813</v>
+        <v>42.54717417973812</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>3.134980900560411</v>
+        <v>3.13498090056041</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>7.245478060408975</v>
+        <v>7.245478060408974</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>22.18272275890043</v>
+        <v>22.18272275890042</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>35.52314059614167</v>
+        <v>35.52314059614166</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>7.91104238920889</v>
+        <v>7.911042389208889</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>7.491159512118782</v>
+        <v>7.491159512118781</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>15.36829358215456</v>
+        <v>15.36829358215455</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>3.517907519675325</v>
+        <v>3.517907519675324</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
